--- a/df.xlsx
+++ b/df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EZ7"/>
+  <dimension ref="A1:FA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,70 +1146,75 @@
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
+          <t>Total_Size_SD</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
           <t>VBL</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>VBL_MBAavg</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>VBL_SD</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>VBL_super</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>VBL_super_MBAavg</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>VBL_super_SD</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>VL_MBAavg</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>VL_SD</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>VL_super</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>VL_super_MBAavg</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>VL_super_SD</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>Weak_MBAavg</t>
         </is>
@@ -1659,45 +1664,48 @@
         <v>6</v>
       </c>
       <c r="EM2" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN2" t="n">
         <v>4.222222222222222</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EO2" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EP2" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EQ2" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="ER2" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ES2" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ET2" t="n">
         <v>2.6</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="EU2" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EV2" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EW2" t="n">
         <v>3</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EX2" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EY2" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EZ2" t="n">
         <v>2</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="FA2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2145,45 +2153,48 @@
         <v>6</v>
       </c>
       <c r="EM3" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN3" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EO3" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EP3" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EQ3" t="n">
         <v>4</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="ER3" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ES3" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ET3" t="n">
         <v>4.2</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="EU3" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EV3" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EW3" t="n">
         <v>2.4</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EX3" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EY3" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EZ3" t="n">
         <v>13</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="FA3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2625,45 +2636,48 @@
         <v>6</v>
       </c>
       <c r="EM4" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN4" t="n">
         <v>5</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EO4" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EP4" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EQ4" t="n">
         <v>4.222222222222222</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="ER4" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ES4" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ET4" t="n">
         <v>5</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="EU4" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EV4" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EW4" t="n">
         <v>5</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EX4" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EY4" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EZ4" t="n">
         <v>0</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="FA4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3111,45 +3125,48 @@
         <v>6</v>
       </c>
       <c r="EM5" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN5" t="n">
         <v>4.222222222222222</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EO5" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EP5" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EQ5" t="n">
         <v>3.777777777777778</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="ER5" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ES5" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ET5" t="n">
         <v>3.4</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="EU5" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EV5" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EW5" t="n">
         <v>3.6</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EX5" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EY5" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EZ5" t="n">
         <v>4</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="FA5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3593,45 +3610,48 @@
         <v>6</v>
       </c>
       <c r="EM6" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN6" t="n">
         <v>3.555555555555555</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EO6" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EP6" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EQ6" t="n">
         <v>3.777777777777778</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="ER6" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ES6" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ET6" t="n">
         <v>4.4</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="EU6" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EV6" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EW6" t="n">
         <v>3.6</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EX6" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EY6" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EZ6" t="n">
         <v>4</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="FA6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4060,44 +4080,47 @@
       <c r="EL7" t="n">
         <v>6</v>
       </c>
-      <c r="EM7" t="inlineStr"/>
-      <c r="EN7" t="n">
+      <c r="EM7" t="n">
+        <v>6.940220937885671</v>
+      </c>
+      <c r="EN7" t="inlineStr"/>
+      <c r="EO7" t="n">
         <v>5.32</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EP7" t="n">
         <v>1.148860949585059</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EQ7" t="n">
         <v>2</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="ER7" t="n">
         <v>4.93</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ES7" t="n">
         <v>1.469806823621877</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ET7" t="n">
         <v>2</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="EU7" t="n">
         <v>3.6</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EV7" t="n">
         <v>1.045625809423875</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EW7" t="n">
         <v>2</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EX7" t="n">
         <v>3.27</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EY7" t="n">
         <v>0.970687041910694</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EZ7" t="n">
         <v>0</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="FA7" t="n">
         <v>3</v>
       </c>
     </row>
